--- a/SchedulingData/dynamic10/pso/scheduling1_5.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling1_5.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>52.16</v>
+        <v>64.56</v>
       </c>
       <c r="E2" t="n">
-        <v>26.984</v>
+        <v>27.184</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>52.16</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>125.6</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>23.72</v>
+        <v>25.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>64.56</v>
       </c>
       <c r="D4" t="n">
-        <v>80.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="E4" t="n">
-        <v>26.08</v>
+        <v>24.48</v>
       </c>
     </row>
     <row r="5">
@@ -523,36 +523,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>80.59999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>117.1</v>
+        <v>135.6</v>
       </c>
       <c r="E5" t="n">
-        <v>23.56</v>
+        <v>21.22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>135.6</v>
       </c>
       <c r="D6" t="n">
-        <v>53.8</v>
+        <v>201.8</v>
       </c>
       <c r="E6" t="n">
-        <v>25.32</v>
+        <v>16.74</v>
       </c>
     </row>
     <row r="7">
@@ -561,136 +561,136 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>40.88</v>
+        <v>59.66</v>
       </c>
       <c r="E7" t="n">
-        <v>26.612</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>81.2</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>25.52</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>81.2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>124.9</v>
+        <v>49.5</v>
       </c>
       <c r="E9" t="n">
-        <v>22.28</v>
+        <v>27.24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>124.9</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>192.3</v>
+        <v>123.64</v>
       </c>
       <c r="E10" t="n">
-        <v>17.66</v>
+        <v>21.436</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>65.59999999999999</v>
+        <v>56.86</v>
       </c>
       <c r="E11" t="n">
-        <v>26.1</v>
+        <v>26.984</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>65.59999999999999</v>
+        <v>123.64</v>
       </c>
       <c r="D12" t="n">
-        <v>131.86</v>
+        <v>164.24</v>
       </c>
       <c r="E12" t="n">
-        <v>23.084</v>
+        <v>19.016</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>53.8</v>
+        <v>164.24</v>
       </c>
       <c r="D13" t="n">
-        <v>104.86</v>
+        <v>231.54</v>
       </c>
       <c r="E13" t="n">
-        <v>22.824</v>
+        <v>15.896</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -698,70 +698,70 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>125.6</v>
+        <v>49.5</v>
       </c>
       <c r="D14" t="n">
-        <v>172.9</v>
+        <v>101.5</v>
       </c>
       <c r="E14" t="n">
-        <v>21.12</v>
+        <v>24.64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>104.86</v>
+        <v>59.66</v>
       </c>
       <c r="D15" t="n">
-        <v>161.38</v>
+        <v>127.56</v>
       </c>
       <c r="E15" t="n">
-        <v>18.792</v>
+        <v>21.524</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>161.38</v>
+        <v>127.56</v>
       </c>
       <c r="D16" t="n">
-        <v>211.14</v>
+        <v>210.66</v>
       </c>
       <c r="E16" t="n">
-        <v>15.936</v>
+        <v>18.284</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>131.86</v>
+        <v>56.86</v>
       </c>
       <c r="D17" t="n">
-        <v>209.26</v>
+        <v>118.22</v>
       </c>
       <c r="E17" t="n">
-        <v>18.944</v>
+        <v>24.488</v>
       </c>
     </row>
     <row r="18">
@@ -770,17 +770,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>172.9</v>
+        <v>231.54</v>
       </c>
       <c r="D18" t="n">
-        <v>237.06</v>
+        <v>290</v>
       </c>
       <c r="E18" t="n">
-        <v>17.324</v>
+        <v>13.14</v>
       </c>
     </row>
     <row r="19">
@@ -789,131 +789,131 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>117.1</v>
+        <v>201.8</v>
       </c>
       <c r="D19" t="n">
-        <v>164.7</v>
+        <v>250.84</v>
       </c>
       <c r="E19" t="n">
-        <v>20.44</v>
+        <v>13.476</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>211.14</v>
+        <v>98</v>
       </c>
       <c r="D20" t="n">
-        <v>266.68</v>
+        <v>187.68</v>
       </c>
       <c r="E20" t="n">
-        <v>11.512</v>
+        <v>21.092</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>40.88</v>
+        <v>187.68</v>
       </c>
       <c r="D21" t="n">
-        <v>106.7</v>
+        <v>246.32</v>
       </c>
       <c r="E21" t="n">
-        <v>23.62</v>
+        <v>17.868</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>209.26</v>
+        <v>210.66</v>
       </c>
       <c r="D22" t="n">
-        <v>281.46</v>
+        <v>270.76</v>
       </c>
       <c r="E22" t="n">
-        <v>14.324</v>
+        <v>14.384</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>266.68</v>
+        <v>118.22</v>
       </c>
       <c r="D23" t="n">
-        <v>317</v>
+        <v>174.74</v>
       </c>
       <c r="E23" t="n">
-        <v>8.6</v>
+        <v>20.456</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>106.7</v>
+        <v>101.5</v>
       </c>
       <c r="D24" t="n">
-        <v>179.84</v>
+        <v>154.1</v>
       </c>
       <c r="E24" t="n">
-        <v>20.396</v>
+        <v>20.02</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>281.46</v>
+        <v>174.74</v>
       </c>
       <c r="D25" t="n">
-        <v>320.92</v>
+        <v>221.1</v>
       </c>
       <c r="E25" t="n">
-        <v>11.508</v>
+        <v>17.44</v>
       </c>
     </row>
     <row r="26">
@@ -922,17 +922,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>192.3</v>
+        <v>221.1</v>
       </c>
       <c r="D26" t="n">
-        <v>235.64</v>
+        <v>257.7</v>
       </c>
       <c r="E26" t="n">
-        <v>14.956</v>
+        <v>14.92</v>
       </c>
     </row>
     <row r="27">
@@ -941,93 +941,93 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>237.06</v>
+        <v>290</v>
       </c>
       <c r="D27" t="n">
-        <v>297.56</v>
+        <v>329.86</v>
       </c>
       <c r="E27" t="n">
-        <v>14.904</v>
+        <v>10.284</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>179.84</v>
+        <v>154.1</v>
       </c>
       <c r="D28" t="n">
-        <v>254.64</v>
+        <v>214.32</v>
       </c>
       <c r="E28" t="n">
-        <v>15.536</v>
+        <v>17.108</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>164.7</v>
+        <v>214.32</v>
       </c>
       <c r="D29" t="n">
-        <v>223.16</v>
+        <v>280.34</v>
       </c>
       <c r="E29" t="n">
-        <v>17.684</v>
+        <v>14.116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>235.64</v>
+        <v>250.84</v>
       </c>
       <c r="D30" t="n">
-        <v>294.14</v>
+        <v>321.8</v>
       </c>
       <c r="E30" t="n">
-        <v>12.196</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>223.16</v>
+        <v>246.32</v>
       </c>
       <c r="D31" t="n">
-        <v>279.62</v>
+        <v>333.22</v>
       </c>
       <c r="E31" t="n">
-        <v>14.668</v>
+        <v>13.248</v>
       </c>
     </row>
   </sheetData>
